--- a/biology/Microbiologie/Ophryocystis/Ophryocystis.xlsx
+++ b/biology/Microbiologie/Ophryocystis/Ophryocystis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophryocystis est un genre de microorganismes néogrégarins.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après l'Index to Organism Names[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après l'Index to Organism Names :
 Ophryocystis anatoliensis Yaman &amp; Radek, 2017
 Ophryocystis butschlii Schneider, 1884
 Ophryocystis dendroctoni Weiser, 1970
@@ -525,15 +539,15 @@
 Ophryocystis oryctesi Purrini, 1984
 Ophryocystis perezi
 Ophryocystis schneideri
-Selon The Taxonomicon  (22 mars 2024)[2] :
+Selon The Taxonomicon  (22 mars 2024) :
 Ophryocystis bütschlii Schneider, 1883
 Ophryocystis elektroscirrha
 Ophryocystis hagenmuelleri
 Ophryocystis hessei
-Selon le NCBI  (22 mars 2024)[3] :
+Selon le NCBI  (22 mars 2024) :
 Ophryocystis elektroscirrha McLaughlin &amp; Myers, 1970
 Ophryocystis sitonae Yildirim, Tosun &amp; Bekircan, 2022
-D'après Yildirim, Tosun &amp; Bekircan, 2022[4] :
+D'après Yildirim, Tosun &amp; Bekircan, 2022 :
 Ophryocystis anatoliensis
 Ophryocystis buetschlii
 Ophryocystis caulleryi
@@ -577,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aimé Schneider, « Zoologie. — Ophryocystis Bütschlii. Note de M. A. Schneider », Comptes rendus hebdomadaires des séances de l'Académie des sciences, publiés par MM. les secrétaires perpétuels, vol. 96,‎ 1883, p. 1378 (lire en ligne, consulté le 26 août 2020)
 </t>
